--- a/R/data_manipulated/310322_summary_stats_single.xlsx
+++ b/R/data_manipulated/310322_summary_stats_single.xlsx
@@ -416,110 +416,110 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3.304866301846937</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1541048092061236</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.116818087228583</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1122038298749973</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9340068887488094</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.08739489027418752</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.206193783950121e-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PFHxA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3.981417147643938</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.3572010269958134</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5613889512703094</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3255785176569023</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2981151597414891</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3127832218240962</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1283144923132998</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4.104659264909928</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.1293182692070828</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.6741238581784312</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1649391188177143</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7357345684917106</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.169752899010193</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.006450240531428572</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -528,69 +528,69 @@
         </is>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4.248367530520897</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.7395929786456039</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1399989842859628</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3775581272215299</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06432463392601283</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.07468428146311169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7463769846287351</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFHpA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4.440152428141622</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.05330891808799928</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5921271069102721</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1128849316280589</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7971853168310522</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1592306417368196</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001192190904604711</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K6">
@@ -611,103 +611,103 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>4.592925979868311</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.496771883857983</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.1353277961280759</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2587112472198377</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03761776229925494</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4313437725689805</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6170596881157295</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PFHxA</t>
+          <t>PFHpA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4.672408585591745</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.05957378571431553</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5693350812945573</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0881888906704856</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8561982290505264</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1346074855145635</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0003483325137883976</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PFHpA</t>
+          <t>PFHxA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4.797457411943215</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.0586353697220421</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3415818529899563</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08627584659479345</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7231850373540657</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1255113949592155</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.007458732536508624</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K9">
@@ -728,71 +728,71 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>4.880392219030622</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.03810096224641888</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6451473698154989</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03569931056524859</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9790159362439913</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04809965434847667</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.92754581275364e-07</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFHxA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>5.061184261076172</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0.07781485902558728</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3866707119195957</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04782275564292678</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9032818536536318</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.09904356039432732</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>8.516225231690886e-05</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PFOA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -801,37 +801,37 @@
         </is>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5.117226250915518</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.02111207534700972</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5957140321092665</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02071359183882407</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9916078514040694</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.03049915370078558</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.580922276803936e-08</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PFOA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -840,115 +840,115 @@
         </is>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>5.216393506773896</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.07391855156708083</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4478394591168344</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0431003391191218</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9391119496500416</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.08043892528445844</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.660924981207425e-05</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5.327604807006183</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.03106464121496136</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.7973267595452055</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07286639611476507</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.944766276255669</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.07854582920637104</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.178145584823242e-05</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFOA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5.611892142515772</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.01722133515591895</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6128900152608022</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02383012838771163</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9895283777943618</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03413832706731192</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3.433660303145454e-08</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFOA</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5.725970720727681</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.02475201706099931</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6466987570825675</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05385482093899394</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9537026483628012</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.07199237993646357</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6.329273014939246e-06</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1001,110 +1001,110 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>5.889605413500681</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.02086137986713248</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7059587649365084</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03079262051440682</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9868572273173084</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03832633882605437</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>7.613223605928944e-08</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>5.979493986917862</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.1684319461213658</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.077247375711971</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1143987610519828</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9268336194897645</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.09627528885264547</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3.175234608995538e-05</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PFHpA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>5.997613380673228</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.04291468352357926</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3543513955730239</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05478813021811443</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8566476175908766</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1264118781996979</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000344468919932733</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/R/data_manipulated/310322_summary_stats_single.xlsx
+++ b/R/data_manipulated/310322_summary_stats_single.xlsx
@@ -416,110 +416,110 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>3.304866301846937</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1541048092061236</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.116818087228583</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1122038298749973</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9340068887488094</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.08739489027418752</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.206193783950121e-05</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFHxA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>3.981417147643938</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.3572010269958134</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5613889512703094</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3255785176569023</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2981151597414891</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.3127832218240962</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.1283144923132998</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>4.104659264909928</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1293182692070828</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.6741238581784312</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1649391188177143</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7357345684917106</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.169752899010193</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.006450240531428572</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PFDA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -528,69 +528,69 @@
         </is>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>4.248367530520897</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7395929786456039</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1399989842859628</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3775581272215299</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06432463392601283</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.07468428146311169</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.7463769846287351</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PFHpA</t>
+          <t>PFPeA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>4.440152428141622</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05330891808799928</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.5921271069102721</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1128849316280589</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7971853168310522</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1592306417368196</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.001192190904604711</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K6">
@@ -611,103 +611,103 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>4.592925979868311</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.496771883857983</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.1353277961280759</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2587112472198377</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03761776229925494</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.4313437725689805</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.6170596881157295</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>PFHpA</t>
+          <t>PFHxA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0</v>
+        <v>4.672408585591745</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05957378571431553</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5693350812945573</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0881888906704856</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8561982290505264</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1346074855145635</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0003483325137883976</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PFHxA</t>
+          <t>PFHpA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0</v>
+        <v>4.797457411943215</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0586353697220421</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3415818529899563</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.08627584659479345</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7231850373540657</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1255113949592155</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.007458732536508624</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K9">
@@ -728,71 +728,71 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0</v>
+        <v>4.880392219030622</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.03810096224641888</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.6451473698154989</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03569931056524859</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9790159362439913</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.04809965434847667</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.92754581275364e-07</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>PFHxA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0</v>
+        <v>5.061184261076172</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.07781485902558728</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3866707119195957</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.04782275564292678</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9032818536536318</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.09904356039432732</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8.516225231690886e-05</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFOA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -801,37 +801,37 @@
         </is>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0</v>
+        <v>5.117226250915518</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.02111207534700972</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.5957140321092665</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.02071359183882407</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.9916078514040694</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.03049915370078558</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.580922276803936e-08</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFOA</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -840,115 +840,115 @@
         </is>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0</v>
+        <v>5.216393506773896</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.07391855156708083</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4478394591168344</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0431003391191218</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.9391119496500416</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.08043892528445844</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.660924981207425e-05</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>PFNA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ULS</t>
+          <t>CWC</t>
         </is>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0</v>
+        <v>5.327604807006183</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.03106464121496136</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.7973267595452055</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.07286639611476507</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.944766276255669</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.07854582920637104</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.178145584823242e-05</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PFOA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0</v>
+        <v>5.611892142515772</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.01722133515591895</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.6128900152608022</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.02383012838771163</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.9895283777943618</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.03413832706731192</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.433660303145454e-08</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PFOA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0</v>
+        <v>5.725970720727681</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.02475201706099931</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.6466987570825675</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.05385482093899394</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.9537026483628012</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.07199237993646357</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6.329273014939246e-06</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1001,110 +1001,110 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0</v>
+        <v>5.889605413500681</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.02086137986713248</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.7059587649365084</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.03079262051440682</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.9868572273173084</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03832633882605437</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>7.613223605928944e-08</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFNA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CWC</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0</v>
+        <v>5.979493986917862</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.1684319461213658</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.077247375711971</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.1143987610519828</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.9268336194897645</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.09627528885264547</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3.175234608995538e-05</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFHpA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>ULS</t>
         </is>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0</v>
+        <v>5.997613380673228</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.04291468352357926</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3543513955730239</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.05478813021811443</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.8566476175908766</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.1264118781996979</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000344468919932733</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFDA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
